--- a/data/hotels_by_city/Houston/Houston_shard_595.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_595.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56723-d8687073-Reviews-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Springhill-Suites-Houston-Sugar-Land.h11547173.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,642 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r595403863-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>56723</t>
+  </si>
+  <si>
+    <t>8687073</t>
+  </si>
+  <si>
+    <t>595403863</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>"Extraordinary Facility, Extraordinary Customer Service"</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this extraordinary facility approximately a dozen times this year.  Our usual place to stay did not have a vacancy and we were referred to this SpringHill Suites location in Sugar Land.  Today, we call the SpringHill Suites location of Sugar Land as our "usual place" to stay.  The entire hotel is immaculate in cleanliness, the rooms are very clean, the linens and towels are freshly cleaned and plentiful, the housekeeping staff has been exceptional and the breakfast area is very well maintained.  The management team and staff performs very good customer service habits.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r587959612-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>587959612</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Still tops my choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was considering other hotel for our holidays around here. But our decision still fell for this hotel. We like it as it is located at the center of our visit around Sugar Land area. The staff are friendly and helpful to our needs. Good to be back again. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r563626402-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>563626402</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Solid Stay.</t>
+  </si>
+  <si>
+    <t>Located conveniently off the highway and right next to a super swanky Audi dealership, the Springhill Suites Houston Sugar Land (SSHSL) is a great base for any business traveler conducting business in the SW part of Houston.  Stayed here for 3 nights for work.  Front desk was polite and common area spotless.  Complimentary breakfast in the morning was well stocked and had much to choose from.  The workout room is small though but has two treadmills and two elliptical machines.  A small bench with some dumbbells allows you to cover the basics.  Room was clean and everything in proper working order.  Will stay here again should I be conducting business in the Sugar Land area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Located conveniently off the highway and right next to a super swanky Audi dealership, the Springhill Suites Houston Sugar Land (SSHSL) is a great base for any business traveler conducting business in the SW part of Houston.  Stayed here for 3 nights for work.  Front desk was polite and common area spotless.  Complimentary breakfast in the morning was well stocked and had much to choose from.  The workout room is small though but has two treadmills and two elliptical machines.  A small bench with some dumbbells allows you to cover the basics.  Room was clean and everything in proper working order.  Will stay here again should I be conducting business in the Sugar Land area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r547450194-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>547450194</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>New stay, weak breakfast</t>
+  </si>
+  <si>
+    <t>I don't understand the room layout of some of these new SpringHill Suites. It's a bit strange with an awkward bathroom as connected to the room. Another challenge for this location is that it's tucked into what feels like a row of warehouses, with no restaurants close by and difficult to find. But, for this stay, the biggest disappointment was the breakfast. I stayed at this location instead of the one in Rosenberg, because of bad breakfast last time there, only to drive the extra 15 miles and still get bad breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>I don't understand the room layout of some of these new SpringHill Suites. It's a bit strange with an awkward bathroom as connected to the room. Another challenge for this location is that it's tucked into what feels like a row of warehouses, with no restaurants close by and difficult to find. But, for this stay, the biggest disappointment was the breakfast. I stayed at this location instead of the one in Rosenberg, because of bad breakfast last time there, only to drive the extra 15 miles and still get bad breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r538539121-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>538539121</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Hidden treasure in Sugar Land</t>
+  </si>
+  <si>
+    <t>I accidentally made reservations at the SpringHill Suites thinking I had reserved the Marriott downtown and I was very pleasantly surprised. This is a new, very neat and clean facility with easy access to the freeway and just a couple of miles to downtown or a six dollar Uber away. The staff are friendly, the hotel is very cozy with a small bar and awesome work out room. The rooms were very reasonably priced and I will be back. Don't miss this great hidden treasure!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r535802361-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>535802361</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Location and room design problems</t>
+  </si>
+  <si>
+    <t>We like Marriott and have had good experiences with SpringHill Suites.  But this hotel has issues.  Location issue: it is close to the railroad track that runs parallel to Hwy 90. This is a very busy rail and there are trains running all the time.  Our room was about 300 yards from the tracks and we heard the sounds of trains all night long.Design issue:  We had the one-bedroom suite with the separate living room. As a design feature, glass partitions are used for the living room wall and bathroom door.  It's nicely modern, but also impossible to turn on a light in either of these rooms without flooding the bedroom with light. So there is no separation between the rooms.  They also have glass doors over the desk area that vibrated with any movement in the room and when the trains went through.  It was quite bothersome.The breakfast buffet was very nice and the staff were very helpful.We will not stay in this hotel again because of the proximity to the railroad tracks and the glass wall designs.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>We like Marriott and have had good experiences with SpringHill Suites.  But this hotel has issues.  Location issue: it is close to the railroad track that runs parallel to Hwy 90. This is a very busy rail and there are trains running all the time.  Our room was about 300 yards from the tracks and we heard the sounds of trains all night long.Design issue:  We had the one-bedroom suite with the separate living room. As a design feature, glass partitions are used for the living room wall and bathroom door.  It's nicely modern, but also impossible to turn on a light in either of these rooms without flooding the bedroom with light. So there is no separation between the rooms.  They also have glass doors over the desk area that vibrated with any movement in the room and when the trains went through.  It was quite bothersome.The breakfast buffet was very nice and the staff were very helpful.We will not stay in this hotel again because of the proximity to the railroad tracks and the glass wall designs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r523617682-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>523617682</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Great Clean Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is very clean  with comfortable rooms. This hotel features a lobby bar and an adequate free breakfast.Location is just ok but the hotel is a great stay for the money. Great staff that are great if you experience a problem.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r509850148-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>509850148</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>New hotel w/potential</t>
+  </si>
+  <si>
+    <t>This is a new hotel and we expect it to deliver the Marriott standard. We stayed for 1 night and had room 425. Initially room appeared to be good, like every other SH we have previously stayed with. Then it quickly turned into bad when we discovered clumps of hairs on the shower walls and some nail clippings on the carpet. We quickly informed the front desk and Leland, the Sales Manager, switched us to room 414. We quickly inspected the bathroom and carpet. We then realized the glass thing by the study vibrated each time we walked in the room as they were mis-aligned. There was tremendous road noise on hwy 59 where we couldn't sleep. We provided our feedback to Leland the next day. The GM gave us 7500 points for the inconvenience. All staffs were wonderful from check-in, to night auditor and sales manager; however, they really need to re-train the housekeeping staffs.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>This is a new hotel and we expect it to deliver the Marriott standard. We stayed for 1 night and had room 425. Initially room appeared to be good, like every other SH we have previously stayed with. Then it quickly turned into bad when we discovered clumps of hairs on the shower walls and some nail clippings on the carpet. We quickly informed the front desk and Leland, the Sales Manager, switched us to room 414. We quickly inspected the bathroom and carpet. We then realized the glass thing by the study vibrated each time we walked in the room as they were mis-aligned. There was tremendous road noise on hwy 59 where we couldn't sleep. We provided our feedback to Leland the next day. The GM gave us 7500 points for the inconvenience. All staffs were wonderful from check-in, to night auditor and sales manager; however, they really need to re-train the housekeeping staffs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r505240141-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>505240141</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Beautiful inside and out and great employees!</t>
+  </si>
+  <si>
+    <t>I moved to this hotel after having been at the Extended Stay America next door which was frankly a "dump."  The employee at the front desk was incredible and after hearing of my problems in the previous hotel did her best to find an even better rate for me.  It was very new, clean and friendly employees from the front desk person to the girl tending the bar, to the breakfast staff to the housekeeper.  They go out of their way to make sure you are comfortable and have everything you need.  The breakfast was fabulous and even had eggs, sausage, potatoes, waffles, oatmeal in addition to the traditional bakery and fruit items.  They also had sliced meats and cheeses, boiled eggs, and yogurt.  Best hotel I've been in for quite a while.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I moved to this hotel after having been at the Extended Stay America next door which was frankly a "dump."  The employee at the front desk was incredible and after hearing of my problems in the previous hotel did her best to find an even better rate for me.  It was very new, clean and friendly employees from the front desk person to the girl tending the bar, to the breakfast staff to the housekeeper.  They go out of their way to make sure you are comfortable and have everything you need.  The breakfast was fabulous and even had eggs, sausage, potatoes, waffles, oatmeal in addition to the traditional bakery and fruit items.  They also had sliced meats and cheeses, boiled eggs, and yogurt.  Best hotel I've been in for quite a while.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r499694148-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>499694148</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Very clean and new. Very friendly staff.</t>
+  </si>
+  <si>
+    <t>This hotel is super clean and seems pretty new. It's a tad bit away from all the Sugar Land shops/stores but just a 10 minute drive to everything. If you want to be in the heart of town, this isn't your place. But if you want a quiet clean place with very friendly staff, then this will work. Not sure I'd stay again because it's just a bit too quiet for me, but some would love this fact about this place. The rooms are quite nice with the little sofa and desk separated from the bed by sliding glass. Fridge and microwave too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r490433583-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>490433583</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softball stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was great. Great staff super friendly and didn't mind the 12 softball girls running around as we were there for our state softball tournament. Very clean rooms and comfortable beds. Will definitely stay there again. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r490243397-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>490243397</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Amazing staff and hotel</t>
+  </si>
+  <si>
+    <t>The best experience from room comfort to Brandon and Ike. There were 24 of us and the amazing attitude and customer service was above and beyond. They made our stay here enjoyable and determine where we stay in the future. Thank you so much Brandon and Ike!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r465520750-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>465520750</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Terrible service</t>
+  </si>
+  <si>
+    <t>HOtel was empty.  FRont desk put crying baby next to our room although every floor was empty.  I told the front desk all they said was I didn't hear a baby. Will never stay at this hotel again.  ONe good note Kitchen Lady was awesomeMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>HOtel was empty.  FRont desk put crying baby next to our room although every floor was empty.  I told the front desk all they said was I didn't hear a baby. Will never stay at this hotel again.  ONe good note Kitchen Lady was awesomeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r456049558-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>456049558</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Great Property!</t>
+  </si>
+  <si>
+    <t>Everyone that worked here was super friendly and efficient.  Great place to stay.  Very clean and comfortable rooms.  We were here for a concert at The Smart Financial Centre.  It's about ten miles away.  We were pleased with every bit of our stay, from check-in to check-out.  The breakfast had a large and very pleasing selection.  We will definitely stay here again when we go back to Sugar Land.  You won't be disappointed.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r455506979-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>455506979</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t>Nice family friendly hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights during the week of Thanksgiving. Every person (front desk, breakfast, maids, etc.) we dealt with was friendly. The room had 2 queen size beds and a pull out couch bed.  Also, had a roomy walk-in closet, a desk area, adnd an area with a small refrigerator, microwave and coffee pot. Roomy bathroom. The only downfall to it was it could use a few hooks to hang clothes on while showering and the door to the bathroom was a sliding door with a frosted window which caused light to illuminate the room somewhat when the light was on in the bathroom. Otherwise, the room was excellent and very comfortable for the 4 days we were there. The breakfast had a variety of things. It had a few hot items, make yourself waffles shaped like Texas and a variety of cereals, yogurt, bagels, etc. We were quite happy with the selection. There were quite a few families there. But, that may have been because it was a holiday week. I would definitely return to this hotel if I ever go to this area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights during the week of Thanksgiving. Every person (front desk, breakfast, maids, etc.) we dealt with was friendly. The room had 2 queen size beds and a pull out couch bed.  Also, had a roomy walk-in closet, a desk area, adnd an area with a small refrigerator, microwave and coffee pot. Roomy bathroom. The only downfall to it was it could use a few hooks to hang clothes on while showering and the door to the bathroom was a sliding door with a frosted window which caused light to illuminate the room somewhat when the light was on in the bathroom. Otherwise, the room was excellent and very comfortable for the 4 days we were there. The breakfast had a variety of things. It had a few hot items, make yourself waffles shaped like Texas and a variety of cereals, yogurt, bagels, etc. We were quite happy with the selection. There were quite a few families there. But, that may have been because it was a holiday week. I would definitely return to this hotel if I ever go to this area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r435112935-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>435112935</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Loved!!</t>
+  </si>
+  <si>
+    <t>This is the second Springhill Suites that I have visited in less than 3 weeks in 2 different cities. This location is very clean and modern. The staff was very accommodating and sweet!  Madison got us all checked in and told us a great restaurant to visit nearby. Our room was very clean and very modern. Loved the sliding door to the very spacious bathroom. Very nice touch. The amenities such as the pool and workout area were clean and well kept. This Springhill Suites even had a little bar area that served drinks and bar food. Frank, the young bartender that served us, was fantastic!!! He served each drink or snack with perfection. He was the type of person that is totally about customer satisfaction. Loved Frank! The breakfast was good and had several options to choose from. The breakfast attendant made sure everything stayed clean and ready to serve.  This is a great hotel. I would definitely recommend them to others!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>This is the second Springhill Suites that I have visited in less than 3 weeks in 2 different cities. This location is very clean and modern. The staff was very accommodating and sweet!  Madison got us all checked in and told us a great restaurant to visit nearby. Our room was very clean and very modern. Loved the sliding door to the very spacious bathroom. Very nice touch. The amenities such as the pool and workout area were clean and well kept. This Springhill Suites even had a little bar area that served drinks and bar food. Frank, the young bartender that served us, was fantastic!!! He served each drink or snack with perfection. He was the type of person that is totally about customer satisfaction. Loved Frank! The breakfast was good and had several options to choose from. The breakfast attendant made sure everything stayed clean and ready to serve.  This is a great hotel. I would definitely recommend them to others!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r434708625-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>434708625</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Modern, clean, and friendly</t>
+  </si>
+  <si>
+    <t>While visiting family in Houston, we stayed here for a few days. It's not the cheapest placed in town, but you get a lot for your money. The rooms are very clean and very well appointed. All the staff from reception to the breakfast buffet staff are very helpful and professional. Though there isn't a mini bar in the room, there is a fridge, coffee maker, and even a microwave. There is a small bar in the lobby and a convenience store. Our favorite feature was the hot breakfast buffet. You not only get the typical continental offerings such as fruit and cereal you also get scrambled eggs, waffle station, and a rotating variation of meats such as bacon, Canadian bacon, and turkey sausage. You can also get yogurt and Greek yogurt. One minor downside is that if your bed is near the AC unit, it can get quite cold as it blows right across the top of the bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>While visiting family in Houston, we stayed here for a few days. It's not the cheapest placed in town, but you get a lot for your money. The rooms are very clean and very well appointed. All the staff from reception to the breakfast buffet staff are very helpful and professional. Though there isn't a mini bar in the room, there is a fridge, coffee maker, and even a microwave. There is a small bar in the lobby and a convenience store. Our favorite feature was the hot breakfast buffet. You not only get the typical continental offerings such as fruit and cereal you also get scrambled eggs, waffle station, and a rotating variation of meats such as bacon, Canadian bacon, and turkey sausage. You can also get yogurt and Greek yogurt. One minor downside is that if your bed is near the AC unit, it can get quite cold as it blows right across the top of the bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r408404339-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>408404339</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>New and wonderful</t>
+  </si>
+  <si>
+    <t>Stayed there for a night with family of four. Suites are two room size. Ours came with two queen beds and a full sofa bed. This hotel is new and it looks. All decor is modern and electric. Hot breakfast is also great. Check in staff is wonderful. Without asking, she gave us welcome bags with water and snack bars. Ample parking. My kids loved their stay at this hotel. With AAA discount at $100/- a night for a family of four is a fantastic choice.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r390579590-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>390579590</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay!</t>
+  </si>
+  <si>
+    <t>What a gem of a hotel!  I was notified very early in the morning that our room was ready.  We arrived and had the quickest check in ever!  The hotel is fairly new and very pretty.  Our room was large and very quiet.  The room was spotless. The bed was the most comfortable bed I have ever slept in!  I almost called for a late check out just so I could enjoy lounging a while longer.  We came to Sugar Land for the Skeeters game and decided to make it a little night away.  We will definitely be doing this getaway again.  Hopefully sooner rather than later.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>LaPorsche W, Assistant General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>What a gem of a hotel!  I was notified very early in the morning that our room was ready.  We arrived and had the quickest check in ever!  The hotel is fairly new and very pretty.  Our room was large and very quiet.  The room was spotless. The bed was the most comfortable bed I have ever slept in!  I almost called for a late check out just so I could enjoy lounging a while longer.  We came to Sugar Land for the Skeeters game and decided to make it a little night away.  We will definitely be doing this getaway again.  Hopefully sooner rather than later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r386601103-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>386601103</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>EVERYTHING WAS GREAT, NO COMPLAINTS, LAPORSHIA WAS GREAT.</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriott Properties around the world but I prefer Springhill Suites. When we checked into the hotel around 10:30PM we were greeted by a nice lady name LaPorshia. She was one of the most friendly person I have came in contact with. She went above and beyond to make sure all our needs were met. She has great customer service skills and she was very professional. LaPorshia was very attentive and helpful. When Checking out that morning, Taylor was also very helpful. They both deserve to be recognized for a positive attitude and making such a great impression for your hotel Allyson Redd.  I'm sincere when I say this experience was so positive that we are going to change our plans in the future and always come stay there. To you and your staff, Please keep up the good work.Warm Regards,Keithen Smith Front Office ManagerCourtyard Marriott Vicksburg,MSMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriott Properties around the world but I prefer Springhill Suites. When we checked into the hotel around 10:30PM we were greeted by a nice lady name LaPorshia. She was one of the most friendly person I have came in contact with. She went above and beyond to make sure all our needs were met. She has great customer service skills and she was very professional. LaPorshia was very attentive and helpful. When Checking out that morning, Taylor was also very helpful. They both deserve to be recognized for a positive attitude and making such a great impression for your hotel Allyson Redd.  I'm sincere when I say this experience was so positive that we are going to change our plans in the future and always come stay there. To you and your staff, Please keep up the good work.Warm Regards,Keithen Smith Front Office ManagerCourtyard Marriott Vicksburg,MSMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r375645046-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>375645046</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Great, new, well-run hotel in Sugar Land</t>
+  </si>
+  <si>
+    <t>This hotel is brand new and really great.  Rooms are large, very clean, comfortable beds, great design elements, excellent cable and internet. Staff is awesome, especially Isaiah Compean.  He provided great service to us doing our late night check in.  They have Starbucks coffee in the lobby.  Highly recommend.  Value plus comfort plus excellent people like Isaiah work here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This hotel is brand new and really great.  Rooms are large, very clean, comfortable beds, great design elements, excellent cable and internet. Staff is awesome, especially Isaiah Compean.  He provided great service to us doing our late night check in.  They have Starbucks coffee in the lobby.  Highly recommend.  Value plus comfort plus excellent people like Isaiah work here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r373505812-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>373505812</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay and wonderful staff</t>
+  </si>
+  <si>
+    <t>The hotel was very clean. I have to say, the breakfast is superb. The sweet woman who works on the weekend for breakfast was so pleasant and made sure we had everything we needed. The manager Isaiah was very helpful with directions towards certain places from the hotel as with other necessities throughout our stay. Very big closet and bathroom. It was perfect distance to Methodist Hospital which was the reason for our stay in Sugar Land. Will definitely return.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r373128775-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>373128775</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>The future in Hotel Decor has arrived!</t>
+  </si>
+  <si>
+    <t>New hotel. Stayed her this weekend for quick business trip to Houston. I heard it's been open for 4 months. Nice new age lobby and the decor is impeccable. I stayed in a room with a King sized Bed. Very spacious room, a nice work desk to boot. The future has certainly arrived... However the hotel manager needs to work on his staff on customer service. The front desk staff was not rude, but she was curt with me. A little smile and welcome would have gone a long way. Nice location too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r371937691-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>371937691</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The hotel was nice clean and modern. I was pleasantly surprised. There is a small indoor pool and a small exercise area. Very close to Sugar Land, Texas. This hotel is located far enough to avoid the First Colony Mall traffic. I will return again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r366407679-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>366407679</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Should have been awesome</t>
+  </si>
+  <si>
+    <t>This is a new hotel and very modern.  What appears to be a very clean hotel isn't.  When I went to my room after checkin, the beds were not made.  The front desk was very apologetic and gave me a different room.  The layout, furniture and lighting of the suite were comfortable and welcoming.  However, stains on the carpet and bathroom counter top, not so much.  Leftover hair in the bathroom made me wonder how clean everything else was.  The bathroom had that "I cleaned this bathroom with a dirty rag" smell, too.  Luckily I only stayed one night.  The breakfast seemed  fresh (not those typical free breakfasts of plastic eggs and mystery sausage) so I took my chances and it was fresh.  This was the one redeeming feature of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>AllysonRedd, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>This is a new hotel and very modern.  What appears to be a very clean hotel isn't.  When I went to my room after checkin, the beds were not made.  The front desk was very apologetic and gave me a different room.  The layout, furniture and lighting of the suite were comfortable and welcoming.  However, stains on the carpet and bathroom counter top, not so much.  Leftover hair in the bathroom made me wonder how clean everything else was.  The bathroom had that "I cleaned this bathroom with a dirty rag" smell, too.  Luckily I only stayed one night.  The breakfast seemed  fresh (not those typical free breakfasts of plastic eggs and mystery sausage) so I took my chances and it was fresh.  This was the one redeeming feature of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r364979008-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>364979008</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Nice and New!</t>
+  </si>
+  <si>
+    <t>The Good:My husband and I were delighted to stay at the SpringHill Suites. Although there weren't a lot of pictures of the hotel rooms on their website, we were pleasantly surprised about how nice this hotel was. We loved the sitting area, the super comfy bed with tons of pillows, and especially, the super clean bathroom. There's even a Keurig available in the room if you don't feel like getting coffee downstairs. Also they probably have one of the best free American hotel breakfast that I've ever had. Their wifi actually works pretty well too. The Bad: The hotel is located right next to the highway. So if your bedroom faces the highway, you'll hear cars all night long. Also, the walls really thin. We could hear kids screaming next door at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Good:My husband and I were delighted to stay at the SpringHill Suites. Although there weren't a lot of pictures of the hotel rooms on their website, we were pleasantly surprised about how nice this hotel was. We loved the sitting area, the super comfy bed with tons of pillows, and especially, the super clean bathroom. There's even a Keurig available in the room if you don't feel like getting coffee downstairs. Also they probably have one of the best free American hotel breakfast that I've ever had. Their wifi actually works pretty well too. The Bad: The hotel is located right next to the highway. So if your bedroom faces the highway, you'll hear cars all night long. Also, the walls really thin. We could hear kids screaming next door at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r364572739-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>364572739</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Girl working the morning breakfast was fantastic</t>
+  </si>
+  <si>
+    <t>The level of service the girl in the dining room was exceptional. Would stay here every time to wake to such a pleasant attitude. It wasn't just our family, but she called others by their names and greeted all the same.  True service in a service industry, rare sometimes, but so refreshing when you see someone take pride in their work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r357180882-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>357180882</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>on the way to quick get-away</t>
+  </si>
+  <si>
+    <t>I was very impressed with this hotel.  this is the most up to date/modern springhill suites we've been to.  We usually prefer Residence inn.  We had plenty of space; the bathroom was very nicely layed out. The staff was very friendly.  The breakfast buffet was the usual stuff, but tasty.  We were only there for one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>AllysonRedd, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>I was very impressed with this hotel.  this is the most up to date/modern springhill suites we've been to.  We usually prefer Residence inn.  We had plenty of space; the bathroom was very nicely layed out. The staff was very friendly.  The breakfast buffet was the usual stuff, but tasty.  We were only there for one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r351367013-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>351367013</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>In the Beginning....</t>
+  </si>
+  <si>
+    <t>This is a brand new SpringHill Suites and they are still finishing out rooms.  I arrived late after dinner with a colleague and was eager to get into a room.  I prefer a king, but they didn't have one available immediately.  They did have one they were preparing and if I didn't mind waiting 20 minutes, they could have it ready.  I actually had 3 of the hotel staff helping, they apologized that the room couldn't be ready immediately and offered a free drink from the bar.  I took them up on the offer and had a great drink and then went to my room which was perfect.  The staff in the morning was equally courteous and efficient.  This is one of the nicest hotel stays I have had in a long time.MoreShow less</t>
+  </si>
+  <si>
+    <t>AllysonRedd, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2016</t>
+  </si>
+  <si>
+    <t>This is a brand new SpringHill Suites and they are still finishing out rooms.  I arrived late after dinner with a colleague and was eager to get into a room.  I prefer a king, but they didn't have one available immediately.  They did have one they were preparing and if I didn't mind waiting 20 minutes, they could have it ready.  I actually had 3 of the hotel staff helping, they apologized that the room couldn't be ready immediately and offered a free drink from the bar.  I took them up on the offer and had a great drink and then went to my room which was perfect.  The staff in the morning was equally courteous and efficient.  This is one of the nicest hotel stays I have had in a long time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r318662958-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>318662958</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Great Weekend!!!</t>
+  </si>
+  <si>
+    <t>Wonderful room, super clean, nicely appointed, and quiet.  Awesome breakfast with fresh fruit.  Even though the pool is outdoor it's a nice area to sit and relax. This will be my hotel home away from home when I'm in Sugar Land!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Wonderful room, super clean, nicely appointed, and quiet.  Awesome breakfast with fresh fruit.  Even though the pool is outdoor it's a nice area to sit and relax. This will be my hotel home away from home when I'm in Sugar Land!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1174,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1206,1919 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>157</v>
+      </c>
+      <c r="X17" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>157</v>
+      </c>
+      <c r="X18" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s">
+        <v>187</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>178</v>
+      </c>
+      <c r="X22" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>217</v>
+      </c>
+      <c r="X26" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>237</v>
+      </c>
+      <c r="X29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>245</v>
+      </c>
+      <c r="X30" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>253</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>245</v>
+      </c>
+      <c r="X31" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_595.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_595.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="385">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r599062307-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>56723</t>
+  </si>
+  <si>
+    <t>8687073</t>
+  </si>
+  <si>
+    <t>599062307</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>Stayed here to attend a concert. Very clean! Super friendly staff and the breakfast was amazing! Pool area was really nice a little small but perfect for us. Would definitely stay here again and reccomend to anyone traveling with or without kids!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r597178347-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>597178347</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Convenient to the entire Houston area</t>
+  </si>
+  <si>
+    <t>This hotel is on the Southwest Freeway/Interstate 69, which makes visiting all areas between Sugar Land and Houston easy to get to.  The hotel staff was kind, helpful and professional.  They gave good recommendations for restaurants in the area.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r595403863-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
-    <t>56723</t>
-  </si>
-  <si>
-    <t>8687073</t>
-  </si>
-  <si>
     <t>595403863</t>
   </si>
   <si>
@@ -171,9 +210,6 @@
     <t>My wife and I have stayed at this extraordinary facility approximately a dozen times this year.  Our usual place to stay did not have a vacancy and we were referred to this SpringHill Suites location in Sugar Land.  Today, we call the SpringHill Suites location of Sugar Land as our "usual place" to stay.  The entire hotel is immaculate in cleanliness, the rooms are very clean, the linens and towels are freshly cleaned and plentiful, the housekeeping staff has been exceptional and the breakfast area is very well maintained.  The management team and staff performs very good customer service habits.</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -222,6 +258,48 @@
     <t>Located conveniently off the highway and right next to a super swanky Audi dealership, the Springhill Suites Houston Sugar Land (SSHSL) is a great base for any business traveler conducting business in the SW part of Houston.  Stayed here for 3 nights for work.  Front desk was polite and common area spotless.  Complimentary breakfast in the morning was well stocked and had much to choose from.  The workout room is small though but has two treadmills and two elliptical machines.  A small bench with some dumbbells allows you to cover the basics.  Room was clean and everything in proper working order.  Will stay here again should I be conducting business in the Sugar Land area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r562327542-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>562327542</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good value </t>
+  </si>
+  <si>
+    <t>Modern and comfortable, near 59 freeway but not effected by road noise.  Interior is modern, rooms are well appointed and comfortable, prices are very good, service is good and attentive.Plenty of restaurants with couple of miles radius, they do serve breakfast ( included) which is adequate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r552315749-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>552315749</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Will not return</t>
+  </si>
+  <si>
+    <t>Not really sure if we were unlucky but cant really understand why it has so many great reviews. The staff at the reception when we checked in were very friendly. Let start with the room, the first room that was assigned to us was not cleaned so we were promptly transferred to another one. Another annoying thing: we were meeting with a realtor in the lobby to discuss houses, after approximately one hour of discussing (the realtor was wearing his company work attire that indicates the company he represent and had folders with big logo of his company) the receptionist (which at that time was one) felt the need to come right next to our table standing there pretending to watch the football game while both ourselves and the realtor realised that she was there to listen to our conversations....extremely unprofessional!! Let’s start with the room, the bathroom confined with the bathroom of the next room and we could hear everything the family in the next room word by word like they were in our bathroom/room so you have 0 privacy in case you want to have any private conversations. I found this an issue with all SpringHill Suites that I’ve slept into (this is my third one so lesson learned). The swimming pool was a real joke it’s the size of two hot tubs together not for swimming by any means more for soaking in water. Breakfast was really...Not really sure if we were unlucky but cant really understand why it has so many great reviews. The staff at the reception when we checked in were very friendly. Let start with the room, the first room that was assigned to us was not cleaned so we were promptly transferred to another one. Another annoying thing: we were meeting with a realtor in the lobby to discuss houses, after approximately one hour of discussing (the realtor was wearing his company work attire that indicates the company he represent and had folders with big logo of his company) the receptionist (which at that time was one) felt the need to come right next to our table standing there pretending to watch the football game while both ourselves and the realtor realised that she was there to listen to our conversations....extremely unprofessional!! Let’s start with the room, the bathroom confined with the bathroom of the next room and we could hear everything the family in the next room word by word like they were in our bathroom/room so you have 0 privacy in case you want to have any private conversations. I found this an issue with all SpringHill Suites that I’ve slept into (this is my third one so lesson learned). The swimming pool was a real joke it’s the size of two hot tubs together not for swimming by any means more for soaking in water. Breakfast was really disappointing, tasteless food... I mean you really can’t go wrong with eggs and patties but no matter what you put on top they tasted like water :-( , the food was getting refilled quickly but unfortunately for as hungry as we were after a toast we decided to call it a day.My iPhone and iPad was unable to connect to the WiFi while my Android was very odd considering that both appliances are only a year old while the android it’s 3 years older as we have our own WiFi we were not to bother but is something people might want to check. Check out is at 12:00 since another long drive was expecting us we went back to rest in our room, we put a sign not to disturb outside kids had the tv on (which you can clearly hear from the door)... after all of that housekeeping came to knock at our door at 10:20???? Rushing people it’s never a good idea.... even worst while offloading our bags in the car (we made two trips) at 11:00 we realised that both or cards have been dis activated .. so they basically checked us out! We found that out as we were left locked outside the back parking and unable to come back inside. After going around the front entrance we asked the receptionist what happens to both keys and she answered that probably we had them next to our phones!! So they keys that after breakfast was left on top of the table with no phone nearby magically dis activate.... lying to the costumers it’s never a good idea. Would we return again.....no thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Not really sure if we were unlucky but cant really understand why it has so many great reviews. The staff at the reception when we checked in were very friendly. Let start with the room, the first room that was assigned to us was not cleaned so we were promptly transferred to another one. Another annoying thing: we were meeting with a realtor in the lobby to discuss houses, after approximately one hour of discussing (the realtor was wearing his company work attire that indicates the company he represent and had folders with big logo of his company) the receptionist (which at that time was one) felt the need to come right next to our table standing there pretending to watch the football game while both ourselves and the realtor realised that she was there to listen to our conversations....extremely unprofessional!! Let’s start with the room, the bathroom confined with the bathroom of the next room and we could hear everything the family in the next room word by word like they were in our bathroom/room so you have 0 privacy in case you want to have any private conversations. I found this an issue with all SpringHill Suites that I’ve slept into (this is my third one so lesson learned). The swimming pool was a real joke it’s the size of two hot tubs together not for swimming by any means more for soaking in water. Breakfast was really...Not really sure if we were unlucky but cant really understand why it has so many great reviews. The staff at the reception when we checked in were very friendly. Let start with the room, the first room that was assigned to us was not cleaned so we were promptly transferred to another one. Another annoying thing: we were meeting with a realtor in the lobby to discuss houses, after approximately one hour of discussing (the realtor was wearing his company work attire that indicates the company he represent and had folders with big logo of his company) the receptionist (which at that time was one) felt the need to come right next to our table standing there pretending to watch the football game while both ourselves and the realtor realised that she was there to listen to our conversations....extremely unprofessional!! Let’s start with the room, the bathroom confined with the bathroom of the next room and we could hear everything the family in the next room word by word like they were in our bathroom/room so you have 0 privacy in case you want to have any private conversations. I found this an issue with all SpringHill Suites that I’ve slept into (this is my third one so lesson learned). The swimming pool was a real joke it’s the size of two hot tubs together not for swimming by any means more for soaking in water. Breakfast was really disappointing, tasteless food... I mean you really can’t go wrong with eggs and patties but no matter what you put on top they tasted like water :-( , the food was getting refilled quickly but unfortunately for as hungry as we were after a toast we decided to call it a day.My iPhone and iPad was unable to connect to the WiFi while my Android was very odd considering that both appliances are only a year old while the android it’s 3 years older as we have our own WiFi we were not to bother but is something people might want to check. Check out is at 12:00 since another long drive was expecting us we went back to rest in our room, we put a sign not to disturb outside kids had the tv on (which you can clearly hear from the door)... after all of that housekeeping came to knock at our door at 10:20???? Rushing people it’s never a good idea.... even worst while offloading our bags in the car (we made two trips) at 11:00 we realised that both or cards have been dis activated .. so they basically checked us out! We found that out as we were left locked outside the back parking and unable to come back inside. After going around the front entrance we asked the receptionist what happens to both keys and she answered that probably we had them next to our phones!! So they keys that after breakfast was left on top of the table with no phone nearby magically dis activate.... lying to the costumers it’s never a good idea. Would we return again.....no thank you!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r547450194-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -294,6 +372,42 @@
     <t>We like Marriott and have had good experiences with SpringHill Suites.  But this hotel has issues.  Location issue: it is close to the railroad track that runs parallel to Hwy 90. This is a very busy rail and there are trains running all the time.  Our room was about 300 yards from the tracks and we heard the sounds of trains all night long.Design issue:  We had the one-bedroom suite with the separate living room. As a design feature, glass partitions are used for the living room wall and bathroom door.  It's nicely modern, but also impossible to turn on a light in either of these rooms without flooding the bedroom with light. So there is no separation between the rooms.  They also have glass doors over the desk area that vibrated with any movement in the room and when the trains went through.  It was quite bothersome.The breakfast buffet was very nice and the staff were very helpful.We will not stay in this hotel again because of the proximity to the railroad tracks and the glass wall designs.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r529195822-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>529195822</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Very Good Hotel compared with Price</t>
+  </si>
+  <si>
+    <t>very good hotel , good breakfast, 2 queens are bigger, big bathroom.overall good return for money that you will spend.Stayed there on Sept 30th ,good options for breakfast. location is also very good , right by the side of highway.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r524198816-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>524198816</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Lot of Room and a touch of modern design. I like!!!</t>
+  </si>
+  <si>
+    <t>My parent's house was flooded during Hurricane Harvey. We came down 1 week ago,  as soon as the roads cleared. To be honest we stayed at another hotel for a few days, because we thought that was all it was going to take. We checked out and then found ourselves needing to stay somewhere for a few more days. EVERYONE was booked except for this place. It was a little more than we wanted to spend but we needed a place. We stayed her for 2 nights. (wish it was for the week) We got separate rooms because we needed to unwind after dealing with flood salvage operation. The rooms surprised us all in everyday we needed it to. We needed the space and clean fresh rooms so bad. If we need to stay in Sugar Land again, we will return. Nice rooms!!! Very Nice!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My parent's house was flooded during Hurricane Harvey. We came down 1 week ago,  as soon as the roads cleared. To be honest we stayed at another hotel for a few days, because we thought that was all it was going to take. We checked out and then found ourselves needing to stay somewhere for a few more days. EVERYONE was booked except for this place. It was a little more than we wanted to spend but we needed a place. We stayed her for 2 nights. (wish it was for the week) We got separate rooms because we needed to unwind after dealing with flood salvage operation. The rooms surprised us all in everyday we needed it to. We needed the space and clean fresh rooms so bad. If we need to stay in Sugar Land again, we will return. Nice rooms!!! Very Nice!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r523617682-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -357,6 +471,51 @@
     <t>I moved to this hotel after having been at the Extended Stay America next door which was frankly a "dump."  The employee at the front desk was incredible and after hearing of my problems in the previous hotel did her best to find an even better rate for me.  It was very new, clean and friendly employees from the front desk person to the girl tending the bar, to the breakfast staff to the housekeeper.  They go out of their way to make sure you are comfortable and have everything you need.  The breakfast was fabulous and even had eggs, sausage, potatoes, waffles, oatmeal in addition to the traditional bakery and fruit items.  They also had sliced meats and cheeses, boiled eggs, and yogurt.  Best hotel I've been in for quite a while.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r503705936-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>503705936</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Our Home Away From Home</t>
+  </si>
+  <si>
+    <t>We had an extended stay here during a recent home renovation.This is a very comfortable hotel.Friendly staff.Excellent breakfast. Hot eggs. Some sort of meat selection each day. Various breads. Really good efficient selection. Very good coffee.Really appreciate our comfy stay here.We were on second floor facing front of building.Convenient to the elevators and ice machine.Walls a bit thin and some noise from next door a little too late at night.Housekeeping extremely polite. They could have been a little more consistent with cleaning. I had to put trash cans outside the door a few times. They never seemed to come clean the room while we were out, but would knock on the door and check to see what was needed. I am all in favor of hanging towels to reuse, but they never seemed to dry.Very slippery tub. And for whatever reason, soap did not rinse well.The friendliness and overall comfort outweighs these few issues. Enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had an extended stay here during a recent home renovation.This is a very comfortable hotel.Friendly staff.Excellent breakfast. Hot eggs. Some sort of meat selection each day. Various breads. Really good efficient selection. Very good coffee.Really appreciate our comfy stay here.We were on second floor facing front of building.Convenient to the elevators and ice machine.Walls a bit thin and some noise from next door a little too late at night.Housekeeping extremely polite. They could have been a little more consistent with cleaning. I had to put trash cans outside the door a few times. They never seemed to come clean the room while we were out, but would knock on the door and check to see what was needed. I am all in favor of hanging towels to reuse, but they never seemed to dry.Very slippery tub. And for whatever reason, soap did not rinse well.The friendliness and overall comfort outweighs these few issues. Enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r500330885-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>500330885</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>just okay</t>
+  </si>
+  <si>
+    <t>The restroom was not clean.  There was someone else's hair on the shower wall and on the bathroom ceiling as well as on the shower curtain.  The toilet had dried urine on the seat.  The NOISE was terrible from the freeway traffic!  Sleep was very difficult, but finally after being so tired - we all fell asleep.  Breakfast was not good.  They ran out of boiled eggs, and the other eggs tasted like powdered eggs,  The oatmeal was so very watery.  It could not be made to edible.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>The restroom was not clean.  There was someone else's hair on the shower wall and on the bathroom ceiling as well as on the shower curtain.  The toilet had dried urine on the seat.  The NOISE was terrible from the freeway traffic!  Sleep was very difficult, but finally after being so tired - we all fell asleep.  Breakfast was not good.  They ran out of boiled eggs, and the other eggs tasted like powdered eggs,  The oatmeal was so very watery.  It could not be made to edible.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r499694148-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -408,6 +567,39 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r487102179-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>487102179</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Amazingly Quiet!</t>
+  </si>
+  <si>
+    <t>3/19-21/17 Friday - SundayStayed here while visiting our kids in Pecan Grove - about a 20 minute drive.Although it is adjacent to Hwy 59/69, it is very quiet.  We did not hear any traffic.Our room was very well appointed. Clean.  Loved the sliding barn door entrance to the bath area.  Had 2 queens, living area, work area &amp; mini kitchen (micro &amp; fridge).Complimentary breakfast was excellent - had something for everyone.  Sausage, eggs, breads, cereals (hot &amp; cold), juices &amp; plenty of hot coffee.Recommend this hotel for both business &amp; pleasure.Pool &amp; workout area available - we did not partake on this trip.Good Free Wi-Fi.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r485106566-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>485106566</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Great Service and Nice New Property</t>
+  </si>
+  <si>
+    <t>We were here for a concert at the Smart Financial Centre. Greeted by friendly staff who were as bright and cheerful as the lobby. Really nice rooms. Enjoyed the indoor pool. Breakfast was very good. Will definitely stay  here again the next time we are in town.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r465520750-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -423,9 +615,6 @@
     <t>HOtel was empty.  FRont desk put crying baby next to our room although every floor was empty.  I told the front desk all they said was I didn't hear a baby. Will never stay at this hotel again.  ONe good note Kitchen Lady was awesomeMoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded March 9, 2017</t>
   </si>
   <si>
@@ -474,6 +663,54 @@
     <t>Stayed here for 4 nights during the week of Thanksgiving. Every person (front desk, breakfast, maids, etc.) we dealt with was friendly. The room had 2 queen size beds and a pull out couch bed.  Also, had a roomy walk-in closet, a desk area, adnd an area with a small refrigerator, microwave and coffee pot. Roomy bathroom. The only downfall to it was it could use a few hooks to hang clothes on while showering and the door to the bathroom was a sliding door with a frosted window which caused light to illuminate the room somewhat when the light was on in the bathroom. Otherwise, the room was excellent and very comfortable for the 4 days we were there. The breakfast had a variety of things. It had a few hot items, make yourself waffles shaped like Texas and a variety of cereals, yogurt, bagels, etc. We were quite happy with the selection. There were quite a few families there. But, that may have been because it was a holiday week. I would definitely return to this hotel if I ever go to this area again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r452126799-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>452126799</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent Location In SugarLand</t>
+  </si>
+  <si>
+    <t>SpringHill is a great business traveling option particularly if you're company likes to keep costs low. The room is equally comfortable compared to a standard Marriott with a more reasonable price point. This location is a short drive off the highway to scores of restaurants and First Colony MallMoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>SpringHill is a great business traveling option particularly if you're company likes to keep costs low. The room is equally comfortable compared to a standard Marriott with a more reasonable price point. This location is a short drive off the highway to scores of restaurants and First Colony MallMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r440765441-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>440765441</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>A breath of fresh air after a bad night</t>
+  </si>
+  <si>
+    <t>Stayed at another hotel over in Stafford the previous night, and we saw this new Springhill Suites, there was no question about where we were staying that night.  It was still early when we checked in (about 9:30am) and we were allowed to enjoy the breakfast before we went up to our room.  (Just as well since we didn't get to use it the next morning.)  Nice room, very clean and modern.  Bed comfy and towels were WONDERFUL.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at another hotel over in Stafford the previous night, and we saw this new Springhill Suites, there was no question about where we were staying that night.  It was still early when we checked in (about 9:30am) and we were allowed to enjoy the breakfast before we went up to our room.  (Just as well since we didn't get to use it the next morning.)  Nice room, very clean and modern.  Bed comfy and towels were WONDERFUL.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r435112935-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -534,6 +771,54 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r393268524-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>393268524</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Fitting for our nostalgic visits!</t>
+  </si>
+  <si>
+    <t>The location is superb as it is close to both Houston and Sugar Land area. The hotel is only one year old and it's really clean and neat. The touchscreen in the lobby gives good information for new travelers in the area. I don't know how the building was made but we might not be lucky as the occupants right upstairs seemed to be busy running around the room making lists of noises from early morning. As we were late sleepers, the noises came thru the floor/our ceiling making us awake and a bit disturbed. Overall this hotel is awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>LaPorsche W, Assistant General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>The location is superb as it is close to both Houston and Sugar Land area. The hotel is only one year old and it's really clean and neat. The touchscreen in the lobby gives good information for new travelers in the area. I don't know how the building was made but we might not be lucky as the occupants right upstairs seemed to be busy running around the room making lists of noises from early morning. As we were late sleepers, the noises came thru the floor/our ceiling making us awake and a bit disturbed. Overall this hotel is awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r390623035-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>390623035</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Great new hotel in Stafford/Sugar Land</t>
+  </si>
+  <si>
+    <t>We (a family of four) spent 6 nights at this hotel and stayed in the suite with 2-queen beds.  We have tried several different hotels in Stafford/Sugar Land/Missouri City area but this hotel has became as our favorite.  The premise is very new with easy access to HWY 59 and HWY 90.  Our room (Room 312 - 3rd floor) has reasonable size and very clean.  We especially like the brightly lid bathroom.  There were microwave, fridge, coffee machine and safe in the room.  The beds were comfortable but the pillows were a bit too soft to our liking, but I guess this is a personal preference.  Our room is facing HWY 59 but did not have any issue with the traffic noise from the highway.  Guest Laundry is on this floor so it is an extra advantage staying on 3rd floor.  We did hear little footstep noise from people staying above us but it did not bother us.. Parking lots are very well lit.  The staffs are friendly especially the Receptionist Lady who checked us in.Internet was good and free of charge. We did not try the complimentary breakfast but it seems the menu were pretty good. Coin laundry machines are available but make sure you bring your own quarters as the hotel did not have quarters for us to exchange. We will definitely return to this hotel when we have the opportunity to visit Stafford/Sugar Land again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We (a family of four) spent 6 nights at this hotel and stayed in the suite with 2-queen beds.  We have tried several different hotels in Stafford/Sugar Land/Missouri City area but this hotel has became as our favorite.  The premise is very new with easy access to HWY 59 and HWY 90.  Our room (Room 312 - 3rd floor) has reasonable size and very clean.  We especially like the brightly lid bathroom.  There were microwave, fridge, coffee machine and safe in the room.  The beds were comfortable but the pillows were a bit too soft to our liking, but I guess this is a personal preference.  Our room is facing HWY 59 but did not have any issue with the traffic noise from the highway.  Guest Laundry is on this floor so it is an extra advantage staying on 3rd floor.  We did hear little footstep noise from people staying above us but it did not bother us.. Parking lots are very well lit.  The staffs are friendly especially the Receptionist Lady who checked us in.Internet was good and free of charge. We did not try the complimentary breakfast but it seems the menu were pretty good. Coin laundry machines are available but make sure you bring your own quarters as the hotel did not have quarters for us to exchange. We will definitely return to this hotel when we have the opportunity to visit Stafford/Sugar Land again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r390579590-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -549,15 +834,6 @@
     <t>What a gem of a hotel!  I was notified very early in the morning that our room was ready.  We arrived and had the quickest check in ever!  The hotel is fairly new and very pretty.  Our room was large and very quiet.  The room was spotless. The bed was the most comfortable bed I have ever slept in!  I almost called for a late check out just so I could enjoy lounging a while longer.  We came to Sugar Land for the Skeeters game and decided to make it a little night away.  We will definitely be doing this getaway again.  Hopefully sooner rather than later.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
-    <t>LaPorsche W, Assistant General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded July 18, 2016</t>
-  </si>
-  <si>
-    <t>Responded July 18, 2016</t>
-  </si>
-  <si>
     <t>What a gem of a hotel!  I was notified very early in the morning that our room was ready.  We arrived and had the quickest check in ever!  The hotel is fairly new and very pretty.  Our room was large and very quiet.  The room was spotless. The bed was the most comfortable bed I have ever slept in!  I almost called for a late check out just so I could enjoy lounging a while longer.  We came to Sugar Land for the Skeeters game and decided to make it a little night away.  We will definitely be doing this getaway again.  Hopefully sooner rather than later.More</t>
   </si>
   <si>
@@ -576,12 +852,6 @@
     <t>I stay at a lot of Marriott Properties around the world but I prefer Springhill Suites. When we checked into the hotel around 10:30PM we were greeted by a nice lady name LaPorshia. She was one of the most friendly person I have came in contact with. She went above and beyond to make sure all our needs were met. She has great customer service skills and she was very professional. LaPorshia was very attentive and helpful. When Checking out that morning, Taylor was also very helpful. They both deserve to be recognized for a positive attitude and making such a great impression for your hotel Allyson Redd.  I'm sincere when I say this experience was so positive that we are going to change our plans in the future and always come stay there. To you and your staff, Please keep up the good work.Warm Regards,Keithen Smith Front Office ManagerCourtyard Marriott Vicksburg,MSMoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I stay at a lot of Marriott Properties around the world but I prefer Springhill Suites. When we checked into the hotel around 10:30PM we were greeted by a nice lady name LaPorshia. She was one of the most friendly person I have came in contact with. She went above and beyond to make sure all our needs were met. She has great customer service skills and she was very professional. LaPorshia was very attentive and helpful. When Checking out that morning, Taylor was also very helpful. They both deserve to be recognized for a positive attitude and making such a great impression for your hotel Allyson Redd.  I'm sincere when I say this experience was so positive that we are going to change our plans in the future and always come stay there. To you and your staff, Please keep up the good work.Warm Regards,Keithen Smith Front Office ManagerCourtyard Marriott Vicksburg,MSMore</t>
   </si>
   <si>
@@ -606,6 +876,45 @@
     <t>This hotel is brand new and really great.  Rooms are large, very clean, comfortable beds, great design elements, excellent cable and internet. Staff is awesome, especially Isaiah Compean.  He provided great service to us doing our late night check in.  They have Starbucks coffee in the lobby.  Highly recommend.  Value plus comfort plus excellent people like Isaiah work here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r374678267-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>374678267</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriott properties, and SpringHill Suites is generally my favorite brand. But nothing about this stay stands out for me. Routine interactions with staff, what I thought was a less than impressive breakfast (not much in the way of fresh fruit), and a location that's just almost in Stafford instead of Sugar Land. Any reason not to stay here? No, if the rates are good I'll probably be back when I'm in this area, since I gave up on the SpringHill Suites in Rosenberg.MoreShow less</t>
+  </si>
+  <si>
+    <t>AllysonRedd, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriott properties, and SpringHill Suites is generally my favorite brand. But nothing about this stay stands out for me. Routine interactions with staff, what I thought was a less than impressive breakfast (not much in the way of fresh fruit), and a location that's just almost in Stafford instead of Sugar Land. Any reason not to stay here? No, if the rates are good I'll probably be back when I'm in this area, since I gave up on the SpringHill Suites in Rosenberg.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r373863528-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>373863528</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Modernistic</t>
+  </si>
+  <si>
+    <t>This hotel has very modern décor and very clean. It has easy access to dining places through the Southwest freeway. It is close proximity to a very nice shopping center, the Colonies North Shopping Mall. The hotel served a full breakfast which is nice when you have to travel the next day.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r373505812-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -654,6 +963,51 @@
     <t>The hotel was nice clean and modern. I was pleasantly surprised. There is a small indoor pool and a small exercise area. Very close to Sugar Land, Texas. This hotel is located far enough to avoid the First Colony Mall traffic. I will return again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r371931555-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>371931555</t>
+  </si>
+  <si>
+    <t>Sugarland Hotel</t>
+  </si>
+  <si>
+    <t>Arrived at this hotel late. Room was ready except it wasn't feather free even though I  was told it was. The night auditor did eventually find some form pillows.  But was an extra 1/2 to be up. (1:45am) But to the hotels credit they did give an extra 10000 points for my troubles. Bed's were hard and you had to wait a long time for hot water in sink and shower. Probably won't stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>AllysonRedd, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Arrived at this hotel late. Room was ready except it wasn't feather free even though I  was told it was. The night auditor did eventually find some form pillows.  But was an extra 1/2 to be up. (1:45am) But to the hotels credit they did give an extra 10000 points for my troubles. Bed's were hard and you had to wait a long time for hot water in sink and shower. Probably won't stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r368496061-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>368496061</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>I wasn't overwhelmed with the front desk staff professionalism</t>
+  </si>
+  <si>
+    <t>Front desk staff seem friendly enough until you need something. My father was in the hospital, we needed a medical rate. They kept referring us to the sales manager who avoided us. Several times they said he was in, then they would go in the back and say he was in a meeting and would call us, or that he had just left. No call back EVER. I am also a Marriott Platinum Elite member. Israel at the desk had a pleasant demeanor on the outside, but never went out of his way. He even questioned me at breakfast as to whether or not I was a hotel guest after the third day. The snack area was completely depleted for DAYS...even sodas and water. There was a cockroach in my sister's room and she had to be moved in the middle of the night. On the bright side, it is shiny and well-appointed, and a has nice bar area when it is open. It's close to a lot of major venues and hospitals. I recommend it, but be mindful of the service issues. This is a Marriott property, so I expected more.MoreShow less</t>
+  </si>
+  <si>
+    <t>AllysonRedd, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Front desk staff seem friendly enough until you need something. My father was in the hospital, we needed a medical rate. They kept referring us to the sales manager who avoided us. Several times they said he was in, then they would go in the back and say he was in a meeting and would call us, or that he had just left. No call back EVER. I am also a Marriott Platinum Elite member. Israel at the desk had a pleasant demeanor on the outside, but never went out of his way. He even questioned me at breakfast as to whether or not I was a hotel guest after the third day. The snack area was completely depleted for DAYS...even sodas and water. There was a cockroach in my sister's room and she had to be moved in the middle of the night. On the bright side, it is shiny and well-appointed, and a has nice bar area when it is open. It's close to a lot of major venues and hospitals. I recommend it, but be mindful of the service issues. This is a Marriott property, so I expected more.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r366407679-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -711,6 +1065,51 @@
     <t>The level of service the girl in the dining room was exceptional. Would stay here every time to wake to such a pleasant attitude. It wasn't just our family, but she called others by their names and greeted all the same.  True service in a service industry, rare sometimes, but so refreshing when you see someone take pride in their work.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r364442260-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>364442260</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>New opened Springhill Suites in Sugarland, Texas</t>
+  </si>
+  <si>
+    <t>Had a great stay this week at this recently opened Springhill Suites. The hotel layout is the newest and latest version for Springhill Suites. Really enjoyed the quietness of the property yet I was only 5 minutes away from the Sugarland mall and restaurants. The lighting and the work areas in the lobby along with nice size TV's made it a nice place to work as I did  a couple of evenings this week. The property also has a small but adequate bar which was new amenity for me. The rooms are better laid out that the older Springhill Suites - but the amenity I liked the most is that the rooms have Direct TV versus only a few channel selections found in most properties. Just as important to me was the staff especially the management team as I found them to truly understand  my needs and were more than willing to make my stay the best it could be - very friendly and seemingly a well run team throughout the property. I would like to RECOGNIZE the GM - Allyson Redd , the front desk manager - Isaiah and the director of sales - Patrick Stevens.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a great stay this week at this recently opened Springhill Suites. The hotel layout is the newest and latest version for Springhill Suites. Really enjoyed the quietness of the property yet I was only 5 minutes away from the Sugarland mall and restaurants. The lighting and the work areas in the lobby along with nice size TV's made it a nice place to work as I did  a couple of evenings this week. The property also has a small but adequate bar which was new amenity for me. The rooms are better laid out that the older Springhill Suites - but the amenity I liked the most is that the rooms have Direct TV versus only a few channel selections found in most properties. Just as important to me was the staff especially the management team as I found them to truly understand  my needs and were more than willing to make my stay the best it could be - very friendly and seemingly a well run team throughout the property. I would like to RECOGNIZE the GM - Allyson Redd , the front desk manager - Isaiah and the director of sales - Patrick Stevens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r357877441-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>357877441</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Fantastic Marriott Property</t>
+  </si>
+  <si>
+    <t>I had multiple stays at this property for work over the last several months and could not be happier.  The property is new and very well done, there is a clear pride in the condition of the building evident from the time you pull into the parking lot.  Parking is convenient and close in to building.Rooms are large and well appointed with seating area couch, desk, large tv, coffee maker, fridge/microwave, and comfortable bed/bedding.  Bathroom is also very large.  As a business traveler you inevitably spend a lot of evenings in the room and I LOVE the directv system with the TV guide, no more trying to figure out what the channels are or what's on.  I also like the ample number of plugs and USB plug on the alarm clock.  Wireless internet service is above average.Common areas are nice with a small bar, great workout area, and pool.  I am not a breakfast eater, but there is a good selection and always looks clean/stocked when I leave in the morning.Definitely recommend this property over the other nearby properties I've stayed in due to the quality of hotel and convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>AllysonRedd, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>I had multiple stays at this property for work over the last several months and could not be happier.  The property is new and very well done, there is a clear pride in the condition of the building evident from the time you pull into the parking lot.  Parking is convenient and close in to building.Rooms are large and well appointed with seating area couch, desk, large tv, coffee maker, fridge/microwave, and comfortable bed/bedding.  Bathroom is also very large.  As a business traveler you inevitably spend a lot of evenings in the room and I LOVE the directv system with the TV guide, no more trying to figure out what the channels are or what's on.  I also like the ample number of plugs and USB plug on the alarm clock.  Wireless internet service is above average.Common areas are nice with a small bar, great workout area, and pool.  I am not a breakfast eater, but there is a good selection and always looks clean/stocked when I leave in the morning.Definitely recommend this property over the other nearby properties I've stayed in due to the quality of hotel and convenience.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d8687073-r357180882-SpringHill_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -724,15 +1123,6 @@
   </si>
   <si>
     <t>I was very impressed with this hotel.  this is the most up to date/modern springhill suites we've been to.  We usually prefer Residence inn.  We had plenty of space; the bathroom was very nicely layed out. The staff was very friendly.  The breakfast buffet was the usual stuff, but tasty.  We were only there for one night.MoreShow less</t>
-  </si>
-  <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>AllysonRedd, General Manager at SpringHill Suites Houston Sugar Land, responded to this reviewResponded March 30, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 30, 2016</t>
   </si>
   <si>
     <t>I was very impressed with this hotel.  this is the most up to date/modern springhill suites we've been to.  We usually prefer Residence inn.  We had plenty of space; the bathroom was very nicely layed out. The staff was very friendly.  The breakfast buffet was the usual stuff, but tasty.  We were only there for one night.More</t>
@@ -1323,18 +1713,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1384,14 +1768,20 @@
         <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1414,46 +1804,46 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1461,7 +1851,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1477,34 +1867,34 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1515,14 +1905,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1538,48 +1924,54 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" t="s">
-        <v>66</v>
-      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1595,56 +1987,48 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" t="s">
-        <v>90</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1660,7 +2044,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1669,25 +2053,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1698,10 +2082,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1717,58 +2105,52 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>98</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
         <v>103</v>
-      </c>
-      <c r="X9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1784,54 +2166,48 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
         <v>106</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>108</v>
       </c>
-      <c r="K10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" t="s">
-        <v>110</v>
-      </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -1847,52 +2223,54 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
         <v>113</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>114</v>
       </c>
-      <c r="J11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
-      </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
       <c r="Y11" t="s">
         <v>117</v>
       </c>
@@ -1937,14 +2315,18 @@
         <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -1988,27 +2370,33 @@
         <v>128</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2045,37 +2433,27 @@
         <v>134</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>136</v>
-      </c>
-      <c r="X14" t="s">
-        <v>137</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -2091,50 +2469,56 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
         <v>139</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
         <v>140</v>
       </c>
-      <c r="J15" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>144</v>
-      </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s">
+        <v>142</v>
+      </c>
       <c r="Y15" t="s">
         <v>143</v>
       </c>
@@ -2152,40 +2536,42 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
         <v>145</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>146</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>147</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>148</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>149</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>150</v>
-      </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2197,7 +2583,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2213,34 +2599,34 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
         <v>152</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>153</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>154</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>155</v>
       </c>
-      <c r="L17" t="s">
-        <v>156</v>
-      </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2251,14 +2637,10 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>157</v>
-      </c>
-      <c r="X17" t="s">
-        <v>158</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -2274,53 +2656,53 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
         <v>160</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>161</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
         <v>162</v>
       </c>
-      <c r="K18" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" t="s">
-        <v>164</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>150</v>
-      </c>
       <c r="O18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="X18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s">
         <v>165</v>
@@ -2360,20 +2742,26 @@
         <v>170</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -2396,34 +2784,34 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
         <v>172</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>173</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>174</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>175</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>176</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>177</v>
-      </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2434,14 +2822,10 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>178</v>
-      </c>
-      <c r="X20" t="s">
-        <v>179</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
@@ -2457,52 +2841,48 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
         <v>181</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>182</v>
       </c>
-      <c r="J21" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21" t="s">
-        <v>184</v>
-      </c>
-      <c r="L21" t="s">
-        <v>185</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>186</v>
-      </c>
       <c r="O21" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -2518,7 +2898,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2527,33 +2907,31 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2562,14 +2940,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>178</v>
-      </c>
-      <c r="X22" t="s">
-        <v>179</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -2585,7 +2959,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2594,34 +2968,32 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2632,7 +3004,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
@@ -2648,7 +3020,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2657,43 +3029,49 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>199</v>
+      </c>
+      <c r="X24" t="s">
+        <v>200</v>
+      </c>
       <c r="Y24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
@@ -2709,48 +3087,52 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>207</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>208</v>
-      </c>
-      <c r="J25" t="s">
-        <v>209</v>
-      </c>
-      <c r="K25" t="s">
-        <v>210</v>
-      </c>
-      <c r="L25" t="s">
-        <v>211</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>194</v>
-      </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
@@ -2766,52 +3148,52 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s">
         <v>212</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>213</v>
       </c>
-      <c r="J26" t="s">
-        <v>214</v>
-      </c>
-      <c r="K26" t="s">
-        <v>215</v>
-      </c>
-      <c r="L26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s">
-        <v>201</v>
-      </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>217</v>
-      </c>
-      <c r="X26" t="s">
-        <v>218</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
@@ -2827,7 +3209,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2836,43 +3218,43 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>220</v>
+      </c>
+      <c r="X27" t="s">
+        <v>221</v>
+      </c>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
@@ -2888,46 +3270,54 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
         <v>226</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>227</v>
       </c>
-      <c r="J28" t="s">
-        <v>228</v>
-      </c>
-      <c r="K28" t="s">
-        <v>229</v>
-      </c>
-      <c r="L28" t="s">
-        <v>230</v>
-      </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>228</v>
+      </c>
+      <c r="X28" t="s">
+        <v>229</v>
+      </c>
       <c r="Y28" t="s">
         <v>230</v>
       </c>
@@ -2966,37 +3356,31 @@
         <v>235</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
+        <v>236</v>
+      </c>
+      <c r="X29" t="s">
         <v>237</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>238</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="30">
@@ -3012,48 +3396,56 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
         <v>240</v>
       </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>241</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>242</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>243</v>
       </c>
-      <c r="L30" t="s">
-        <v>244</v>
-      </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
+      <c r="N30" t="s">
+        <v>213</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
@@ -3069,56 +3461,1288 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
         <v>248</v>
       </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>249</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>250</v>
       </c>
-      <c r="K31" t="s">
-        <v>251</v>
-      </c>
-      <c r="L31" t="s">
-        <v>252</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>253</v>
-      </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>245</v>
-      </c>
-      <c r="X31" t="s">
-        <v>246</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>252</v>
+      </c>
+      <c r="J32" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s">
         <v>254</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>257</v>
+      </c>
+      <c r="X32" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" t="s">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>264</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s">
+        <v>271</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>257</v>
+      </c>
+      <c r="X34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>284</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>257</v>
+      </c>
+      <c r="X36" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" t="s">
+        <v>288</v>
+      </c>
+      <c r="K37" t="s">
+        <v>289</v>
+      </c>
+      <c r="L37" t="s">
+        <v>290</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>291</v>
+      </c>
+      <c r="X37" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" t="s">
+        <v>297</v>
+      </c>
+      <c r="L38" t="s">
+        <v>298</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>284</v>
+      </c>
+      <c r="O38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J39" t="s">
+        <v>301</v>
+      </c>
+      <c r="K39" t="s">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s">
+        <v>303</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>304</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>305</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>306</v>
+      </c>
+      <c r="J40" t="s">
+        <v>307</v>
+      </c>
+      <c r="K40" t="s">
+        <v>308</v>
+      </c>
+      <c r="L40" t="s">
+        <v>309</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>311</v>
+      </c>
+      <c r="J41" t="s">
+        <v>312</v>
+      </c>
+      <c r="K41" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s">
+        <v>314</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J42" t="s">
+        <v>312</v>
+      </c>
+      <c r="K42" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s">
+        <v>318</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>284</v>
+      </c>
+      <c r="O42" t="s">
+        <v>78</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>319</v>
+      </c>
+      <c r="X42" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" t="s">
+        <v>324</v>
+      </c>
+      <c r="K43" t="s">
+        <v>325</v>
+      </c>
+      <c r="L43" t="s">
+        <v>326</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>304</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>327</v>
+      </c>
+      <c r="X43" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>331</v>
+      </c>
+      <c r="J44" t="s">
+        <v>332</v>
+      </c>
+      <c r="K44" t="s">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>304</v>
+      </c>
+      <c r="O44" t="s">
+        <v>78</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>335</v>
+      </c>
+      <c r="X44" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>339</v>
+      </c>
+      <c r="J45" t="s">
+        <v>340</v>
+      </c>
+      <c r="K45" t="s">
+        <v>341</v>
+      </c>
+      <c r="L45" t="s">
+        <v>342</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>304</v>
+      </c>
+      <c r="O45" t="s">
+        <v>64</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>344</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>345</v>
+      </c>
+      <c r="J46" t="s">
+        <v>346</v>
+      </c>
+      <c r="K46" t="s">
+        <v>347</v>
+      </c>
+      <c r="L46" t="s">
+        <v>348</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>304</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>350</v>
+      </c>
+      <c r="J47" t="s">
+        <v>351</v>
+      </c>
+      <c r="K47" t="s">
+        <v>352</v>
+      </c>
+      <c r="L47" t="s">
+        <v>353</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>304</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>355</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>356</v>
+      </c>
+      <c r="J48" t="s">
+        <v>357</v>
+      </c>
+      <c r="K48" t="s">
+        <v>358</v>
+      </c>
+      <c r="L48" t="s">
+        <v>359</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>360</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>361</v>
+      </c>
+      <c r="X48" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>364</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" t="s">
+        <v>366</v>
+      </c>
+      <c r="K49" t="s">
+        <v>367</v>
+      </c>
+      <c r="L49" t="s">
+        <v>368</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>360</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>361</v>
+      </c>
+      <c r="X49" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" t="s">
+        <v>372</v>
+      </c>
+      <c r="K50" t="s">
+        <v>373</v>
+      </c>
+      <c r="L50" t="s">
+        <v>374</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>375</v>
+      </c>
+      <c r="X50" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60801</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>378</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>379</v>
+      </c>
+      <c r="J51" t="s">
+        <v>380</v>
+      </c>
+      <c r="K51" t="s">
+        <v>381</v>
+      </c>
+      <c r="L51" t="s">
+        <v>382</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>383</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>375</v>
+      </c>
+      <c r="X51" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
